--- a/tests/ex1_shear_center_open/Elements.xlsx
+++ b/tests/ex1_shear_center_open/Elements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwob\GitHub\ShearFlowThinSections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwob\GitHub\ShearFlowThinSections\tests\ex1_shear_center_open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7539EA-735D-4DBD-81FE-72F811AE711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52FBCD5-B637-4494-8825-848E4C366002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15885" xr2:uid="{164C7E60-DEC9-4E1C-9506-A74F76B88829}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15885" xr2:uid="{164C7E60-DEC9-4E1C-9506-A74F76B88829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
